--- a/Data_Product/App_Data/BM_NhatKyDungSanXuat.xlsx
+++ b/Data_Product/App_Data/BM_NhatKyDungSanXuat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - hoaphat.com.vn\Software\ThongKePKH\Main\DATAPRODUCT\Data_Product\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HPDQ_BICH PHUONG\PM BCSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F803C6-5043-4653-90CC-0CF0EE992909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBD88531-BD38-4420-B98E-0C3B8A47CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C55D740C-D1E6-4AF1-8652-5A16423F5332}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C55D740C-D1E6-4AF1-8652-5A16423F5332}"/>
   </bookViews>
   <sheets>
     <sheet name="BM" sheetId="1" r:id="rId1"/>
@@ -275,14 +275,17 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,9 +293,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,14 +302,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,9 +517,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -557,7 +557,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -663,7 +663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -805,7 +805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -819,7 +819,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,62 +844,62 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -914,16 +914,16 @@
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -938,56 +938,56 @@
       <c r="M6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1002,33 +1002,33 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="17">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="17">
         <v>0.375</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1043,36 +1043,39 @@
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="17">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="17">
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="17">
         <v>0.11458333333333333</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="N6:N8"/>
@@ -1089,9 +1092,6 @@
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="P6:P8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.17" top="0.3" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
